--- a/docs/source/_static/reports/DATABASEFULL_REPORT.xlsx
+++ b/docs/source/_static/reports/DATABASEFULL_REPORT.xlsx
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>45565</v>
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>45565</v>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="E4" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14" t="n">
         <v>45565</v>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>45565</v>
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="n">
         <v>45565</v>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="n">
         <v>45565</v>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>45689</v>
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>45689</v>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>45689</v>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>45689</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>45689</v>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>45689</v>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>45689</v>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>45689</v>
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="inlineStr"/>
       <c r="G2" s="12" t="inlineStr"/>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="12" t="inlineStr"/>
       <c r="G3" s="12" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="12" t="inlineStr"/>
       <c r="G4" s="12" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="12" t="inlineStr"/>
       <c r="G5" s="12" t="inlineStr"/>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12" t="inlineStr"/>
       <c r="G6" s="12" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="12" t="inlineStr"/>
       <c r="G7" s="12" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="12" t="inlineStr"/>
       <c r="G8" s="12" t="inlineStr"/>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="12" t="inlineStr"/>
       <c r="G9" s="12" t="inlineStr"/>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="inlineStr"/>
       <c r="G2" s="7" t="inlineStr">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="16" t="inlineStr"/>
       <c r="G3" s="7" t="inlineStr">
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16" t="inlineStr"/>
       <c r="G4" s="7" t="inlineStr">
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="16" t="inlineStr"/>
       <c r="G5" s="7" t="inlineStr">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="inlineStr"/>
       <c r="G6" s="7" t="inlineStr">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16" t="inlineStr"/>
       <c r="G7" s="7" t="inlineStr">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr">
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="E10" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="17" t="inlineStr"/>
       <c r="G10" s="5" t="inlineStr"/>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="E11" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="17" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="E12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="17" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="17" t="inlineStr"/>
       <c r="G13" s="5" t="inlineStr"/>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17" t="inlineStr"/>
       <c r="G14" s="5" t="inlineStr"/>
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="17" t="inlineStr"/>
       <c r="G15" s="5" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="17" t="inlineStr"/>
       <c r="G16" s="5" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="E17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="17" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="16" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="E19" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="16" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="E20" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="16" t="inlineStr"/>
       <c r="G20" s="7" t="inlineStr"/>
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="E21" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="16" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="16" t="inlineStr"/>
       <c r="G22" s="7" t="inlineStr"/>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="E23" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="16" t="inlineStr"/>
       <c r="G23" s="7" t="inlineStr"/>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="E24" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="16" t="inlineStr"/>
       <c r="G24" s="7" t="inlineStr"/>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="E25" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="16" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="E26" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="17" t="n">
         <v>45561</v>
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="17" t="n">
         <v>45561</v>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="E28" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="17" t="n">
         <v>45561</v>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="E29" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="17" t="n">
         <v>45561</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E30" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="17" t="n">
         <v>45561</v>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="E31" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="17" t="n">
         <v>45561</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="E32" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="17" t="n">
         <v>45561</v>
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="E33" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="17" t="n">
         <v>45561</v>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>45550</v>
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>45550</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>45550</v>
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>45550</v>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>45550</v>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>45550</v>
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>45550</v>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>45550</v>
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="E10" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="17" t="n">
         <v>45556</v>
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="E11" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="17" t="n">
         <v>45556</v>
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="E12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="17" t="n">
         <v>45556</v>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="17" t="n">
         <v>45556</v>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17" t="n">
         <v>45556</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="17" t="n">
         <v>45556</v>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="17" t="n">
         <v>45556</v>
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="E17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="17" t="n">
         <v>45556</v>
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="16" t="n">
         <v>45555</v>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="E19" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="16" t="n">
         <v>45555</v>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="E20" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="16" t="n">
         <v>45555</v>
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="E21" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="16" t="n">
         <v>45555</v>
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="16" t="n">
         <v>45555</v>
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="E23" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="16" t="n">
         <v>45555</v>
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="E24" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="16" t="n">
         <v>45555</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="E25" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="16" t="n">
         <v>45555</v>
@@ -7470,7 +7470,7 @@
         </is>
       </c>
       <c r="E26" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="17" t="n">
         <v>45560</v>
@@ -7558,7 +7558,7 @@
         </is>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="17" t="n">
         <v>45560</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E28" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="17" t="n">
         <v>45560</v>
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="E29" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="17" t="n">
         <v>45560</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="E30" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="17" t="n">
         <v>45560</v>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="E31" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="17" t="n">
         <v>45560</v>
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="E32" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="17" t="n">
         <v>45560</v>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="E33" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="17" t="n">
         <v>45560</v>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>45550</v>
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>45550</v>
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>45550</v>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>45550</v>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>45550</v>
@@ -8676,7 +8676,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>45550</v>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>45550</v>
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>45550</v>
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>45536</v>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>45536</v>
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>45536</v>
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>45536</v>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>45536</v>
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>45536</v>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>45536</v>
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>45536</v>
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="16" t="n">
         <v>45536</v>
@@ -9269,7 +9269,7 @@
         </is>
       </c>
       <c r="E11" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="16" t="n">
         <v>45536</v>
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="16" t="n">
         <v>45536</v>
@@ -9335,7 +9335,7 @@
         </is>
       </c>
       <c r="E13" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="16" t="n">
         <v>45536</v>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="E14" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="16" t="n">
         <v>45536</v>
@@ -9401,7 +9401,7 @@
         </is>
       </c>
       <c r="E15" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="16" t="n">
         <v>45536</v>
@@ -9434,7 +9434,7 @@
         </is>
       </c>
       <c r="E16" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="16" t="n">
         <v>45536</v>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="E17" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="16" t="n">
         <v>45536</v>
@@ -9500,7 +9500,7 @@
         </is>
       </c>
       <c r="E18" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="17" t="n">
         <v>45658</v>
@@ -9533,7 +9533,7 @@
         </is>
       </c>
       <c r="E19" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="17" t="n">
         <v>45658</v>
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="E20" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="17" t="n">
         <v>45658</v>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="E21" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17" t="n">
         <v>45658</v>
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="E22" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="17" t="n">
         <v>45658</v>
@@ -9665,7 +9665,7 @@
         </is>
       </c>
       <c r="E23" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="17" t="n">
         <v>45658</v>
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="E24" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="17" t="n">
         <v>45658</v>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="E25" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="17" t="n">
         <v>45658</v>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="E26" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="16" t="n">
         <v>45550</v>
@@ -9797,7 +9797,7 @@
         </is>
       </c>
       <c r="E27" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="16" t="n">
         <v>45550</v>
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="E28" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="16" t="n">
         <v>45550</v>
@@ -9863,7 +9863,7 @@
         </is>
       </c>
       <c r="E29" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="16" t="n">
         <v>45550</v>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="16" t="n">
         <v>45550</v>
@@ -9929,7 +9929,7 @@
         </is>
       </c>
       <c r="E31" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="16" t="n">
         <v>45550</v>
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="16" t="n">
         <v>45550</v>
@@ -9995,7 +9995,7 @@
         </is>
       </c>
       <c r="E33" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="16" t="n">
         <v>45550</v>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="E34" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="17" t="n">
         <v>45555</v>
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="E35" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="17" t="n">
         <v>45555</v>
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="E36" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="17" t="n">
         <v>45555</v>
@@ -10127,7 +10127,7 @@
         </is>
       </c>
       <c r="E37" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="17" t="n">
         <v>45555</v>
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="E38" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="17" t="n">
         <v>45555</v>
@@ -10193,7 +10193,7 @@
         </is>
       </c>
       <c r="E39" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="17" t="n">
         <v>45555</v>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="E40" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="17" t="n">
         <v>45555</v>
@@ -10259,7 +10259,7 @@
         </is>
       </c>
       <c r="E41" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="17" t="n">
         <v>45555</v>
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="E42" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="16" t="n">
         <v>45560</v>
@@ -10325,7 +10325,7 @@
         </is>
       </c>
       <c r="E43" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="16" t="n">
         <v>45560</v>
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="E44" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="16" t="n">
         <v>45560</v>
@@ -10391,7 +10391,7 @@
         </is>
       </c>
       <c r="E45" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="16" t="n">
         <v>45560</v>
@@ -10424,7 +10424,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="16" t="n">
         <v>45560</v>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="E47" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="16" t="n">
         <v>45560</v>
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="E48" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="16" t="n">
         <v>45560</v>
@@ -10523,7 +10523,7 @@
         </is>
       </c>
       <c r="E49" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="16" t="n">
         <v>45560</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="F2" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="inlineStr"/>
       <c r="H2" s="12" t="inlineStr"/>
@@ -10689,7 +10689,7 @@
         </is>
       </c>
       <c r="F3" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="inlineStr"/>
       <c r="H3" s="12" t="inlineStr"/>
@@ -10731,7 +10731,7 @@
         </is>
       </c>
       <c r="F4" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="inlineStr"/>
       <c r="H4" s="12" t="inlineStr"/>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="F5" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="inlineStr"/>
       <c r="H5" s="12" t="inlineStr"/>
@@ -10815,7 +10815,7 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="12" t="inlineStr"/>
       <c r="H6" s="12" t="inlineStr"/>
@@ -10857,7 +10857,7 @@
         </is>
       </c>
       <c r="F7" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12" t="inlineStr"/>
       <c r="H7" s="12" t="inlineStr"/>
@@ -10899,7 +10899,7 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="inlineStr"/>
       <c r="H8" s="12" t="inlineStr"/>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="F9" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12" t="inlineStr"/>
       <c r="H9" s="12" t="inlineStr"/>
@@ -12625,7 +12625,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="12" t="inlineStr"/>
       <c r="H27" s="12" t="inlineStr"/>
@@ -12751,7 +12751,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="12" t="inlineStr"/>
       <c r="H29" s="12" t="inlineStr"/>
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="12" t="inlineStr"/>
       <c r="H31" s="12" t="inlineStr"/>
@@ -13003,7 +13003,7 @@
         </is>
       </c>
       <c r="F33" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="12" t="inlineStr"/>
       <c r="H33" s="12" t="inlineStr"/>
@@ -13129,7 +13129,7 @@
         </is>
       </c>
       <c r="F35" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="12" t="inlineStr"/>
       <c r="H35" s="12" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="12" t="inlineStr"/>
       <c r="H37" s="12" t="inlineStr"/>
@@ -13381,7 +13381,7 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="12" t="inlineStr"/>
       <c r="H39" s="12" t="inlineStr"/>
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="F41" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="12" t="inlineStr"/>
       <c r="H41" s="12" t="inlineStr"/>
@@ -13633,7 +13633,7 @@
         </is>
       </c>
       <c r="F43" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="12" t="inlineStr"/>
       <c r="H43" s="12" t="inlineStr"/>
@@ -13759,7 +13759,7 @@
         </is>
       </c>
       <c r="F45" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="12" t="inlineStr"/>
       <c r="H45" s="12" t="inlineStr"/>
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="F47" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="12" t="inlineStr"/>
       <c r="H47" s="12" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
         </is>
       </c>
       <c r="F49" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="12" t="inlineStr"/>
       <c r="H49" s="12" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
         </is>
       </c>
       <c r="F51" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="12" t="inlineStr"/>
       <c r="H51" s="12" t="inlineStr"/>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="F53" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G53" s="12" t="inlineStr"/>
       <c r="H53" s="12" t="inlineStr"/>
@@ -14389,7 +14389,7 @@
         </is>
       </c>
       <c r="F55" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="12" t="inlineStr"/>
       <c r="H55" s="12" t="inlineStr"/>
@@ -14515,7 +14515,7 @@
         </is>
       </c>
       <c r="F57" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="12" t="inlineStr"/>
       <c r="H57" s="12" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         </is>
       </c>
       <c r="F59" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G59" s="12" t="inlineStr"/>
       <c r="H59" s="12" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
         </is>
       </c>
       <c r="F61" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="12" t="inlineStr"/>
       <c r="H61" s="12" t="inlineStr"/>
@@ -14893,7 +14893,7 @@
         </is>
       </c>
       <c r="F63" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="12" t="inlineStr"/>
       <c r="H63" s="12" t="inlineStr"/>
@@ -15019,7 +15019,7 @@
         </is>
       </c>
       <c r="F65" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="12" t="inlineStr"/>
       <c r="H65" s="12" t="inlineStr"/>
@@ -15145,7 +15145,7 @@
         </is>
       </c>
       <c r="F67" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67" s="12" t="inlineStr"/>
       <c r="H67" s="12" t="inlineStr"/>
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="F69" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="12" t="inlineStr"/>
       <c r="H69" s="12" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
         </is>
       </c>
       <c r="F71" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G71" s="12" t="inlineStr"/>
       <c r="H71" s="12" t="inlineStr"/>
@@ -15523,7 +15523,7 @@
         </is>
       </c>
       <c r="F73" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="12" t="inlineStr"/>
       <c r="H73" s="12" t="inlineStr"/>
@@ -15600,7 +15600,7 @@
         </is>
       </c>
       <c r="F74" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74" s="14" t="inlineStr"/>
       <c r="H74" s="14" t="inlineStr"/>
@@ -15649,7 +15649,7 @@
         </is>
       </c>
       <c r="F75" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75" s="14" t="inlineStr"/>
       <c r="H75" s="14" t="inlineStr"/>
@@ -15698,7 +15698,7 @@
         </is>
       </c>
       <c r="F76" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G76" s="14" t="inlineStr"/>
       <c r="H76" s="14" t="inlineStr"/>
@@ -15747,7 +15747,7 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G77" s="14" t="inlineStr"/>
       <c r="H77" s="14" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="F78" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" s="14" t="inlineStr"/>
       <c r="H78" s="14" t="inlineStr"/>
@@ -15845,7 +15845,7 @@
         </is>
       </c>
       <c r="F79" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G79" s="14" t="inlineStr"/>
       <c r="H79" s="14" t="inlineStr"/>
@@ -15894,7 +15894,7 @@
         </is>
       </c>
       <c r="F80" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80" s="14" t="inlineStr"/>
       <c r="H80" s="14" t="inlineStr"/>
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="F81" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G81" s="14" t="inlineStr"/>
       <c r="H81" s="14" t="inlineStr"/>
@@ -16078,7 +16078,7 @@
         </is>
       </c>
       <c r="F2" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="inlineStr"/>
       <c r="H2" s="12" t="inlineStr"/>
@@ -16120,7 +16120,7 @@
         </is>
       </c>
       <c r="F3" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="inlineStr"/>
       <c r="H3" s="12" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="F4" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="inlineStr"/>
       <c r="H4" s="12" t="inlineStr"/>
@@ -16204,7 +16204,7 @@
         </is>
       </c>
       <c r="F5" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="inlineStr"/>
       <c r="H5" s="12" t="inlineStr"/>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="12" t="inlineStr"/>
       <c r="H6" s="12" t="inlineStr"/>
@@ -16288,7 +16288,7 @@
         </is>
       </c>
       <c r="F7" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12" t="inlineStr"/>
       <c r="H7" s="12" t="inlineStr"/>
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="inlineStr"/>
       <c r="H8" s="12" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="F9" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12" t="inlineStr"/>
       <c r="H9" s="12" t="inlineStr"/>
@@ -16414,7 +16414,7 @@
         </is>
       </c>
       <c r="F10" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" s="14" t="inlineStr"/>
       <c r="H10" s="14" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         </is>
       </c>
       <c r="F11" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="14" t="inlineStr"/>
       <c r="H11" s="14" t="inlineStr"/>
@@ -16498,7 +16498,7 @@
         </is>
       </c>
       <c r="F12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="14" t="inlineStr"/>
       <c r="H12" s="14" t="inlineStr"/>
@@ -16540,7 +16540,7 @@
         </is>
       </c>
       <c r="F13" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14" t="inlineStr"/>
       <c r="H13" s="14" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
         </is>
       </c>
       <c r="F14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14" t="inlineStr"/>
       <c r="H14" s="14" t="inlineStr"/>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="F15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="14" t="inlineStr"/>
       <c r="H15" s="14" t="inlineStr"/>
@@ -16666,7 +16666,7 @@
         </is>
       </c>
       <c r="F16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="14" t="inlineStr"/>
       <c r="H16" s="14" t="inlineStr"/>
@@ -16708,7 +16708,7 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="14" t="inlineStr"/>
       <c r="H17" s="14" t="inlineStr"/>
@@ -16750,7 +16750,7 @@
         </is>
       </c>
       <c r="F18" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="12" t="inlineStr"/>
       <c r="H18" s="12" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="F19" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="12" t="inlineStr"/>
       <c r="H19" s="12" t="inlineStr"/>
@@ -16834,7 +16834,7 @@
         </is>
       </c>
       <c r="F20" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="12" t="inlineStr"/>
       <c r="H20" s="12" t="inlineStr"/>
@@ -16876,7 +16876,7 @@
         </is>
       </c>
       <c r="F21" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="12" t="inlineStr"/>
       <c r="H21" s="12" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         </is>
       </c>
       <c r="F22" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="12" t="inlineStr"/>
       <c r="H22" s="12" t="inlineStr"/>
@@ -16960,7 +16960,7 @@
         </is>
       </c>
       <c r="F23" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="12" t="inlineStr"/>
       <c r="H23" s="12" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="F24" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="12" t="inlineStr"/>
       <c r="H24" s="12" t="inlineStr"/>
@@ -17044,7 +17044,7 @@
         </is>
       </c>
       <c r="F25" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="12" t="inlineStr"/>
       <c r="H25" s="12" t="inlineStr"/>
@@ -17086,7 +17086,7 @@
         </is>
       </c>
       <c r="F26" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="14" t="inlineStr"/>
       <c r="H26" s="14" t="inlineStr"/>
@@ -17128,7 +17128,7 @@
         </is>
       </c>
       <c r="F27" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="14" t="inlineStr"/>
       <c r="H27" s="14" t="inlineStr"/>
@@ -17170,7 +17170,7 @@
         </is>
       </c>
       <c r="F28" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="14" t="inlineStr"/>
       <c r="H28" s="14" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="14" t="inlineStr"/>
       <c r="H29" s="14" t="inlineStr"/>
@@ -17254,7 +17254,7 @@
         </is>
       </c>
       <c r="F30" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="14" t="inlineStr"/>
       <c r="H30" s="14" t="inlineStr"/>
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="14" t="inlineStr"/>
       <c r="H31" s="14" t="inlineStr"/>
@@ -17338,7 +17338,7 @@
         </is>
       </c>
       <c r="F32" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="14" t="inlineStr"/>
       <c r="H32" s="14" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="F33" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" s="14" t="inlineStr"/>
       <c r="H33" s="14" t="inlineStr"/>
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="F2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="7" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         </is>
       </c>
       <c r="F3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
@@ -17576,7 +17576,7 @@
         </is>
       </c>
       <c r="F4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="7" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         </is>
       </c>
       <c r="F5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         </is>
       </c>
       <c r="F6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="F7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         </is>
       </c>
       <c r="F8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="F9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="7" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         </is>
       </c>
       <c r="F10" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         </is>
       </c>
       <c r="F11" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="F12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         </is>
       </c>
       <c r="F13" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
@@ -17976,7 +17976,7 @@
         </is>
       </c>
       <c r="F14" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="F15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         </is>
       </c>
       <c r="F16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="F18" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         </is>
       </c>
       <c r="F20" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="F22" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         </is>
       </c>
       <c r="F24" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         </is>
       </c>
       <c r="F25" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="7" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         </is>
       </c>
       <c r="F26" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="7" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="F27" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         </is>
       </c>
       <c r="F28" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         </is>
       </c>
       <c r="F29" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         </is>
       </c>
       <c r="F30" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         </is>
       </c>
       <c r="F31" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="F32" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         </is>
       </c>
       <c r="F33" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         </is>
       </c>
       <c r="F34" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
@@ -18816,7 +18816,7 @@
         </is>
       </c>
       <c r="F35" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="7" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="F36" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" s="7" t="inlineStr">
         <is>
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="F37" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="7" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         </is>
       </c>
       <c r="F38" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="7" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         </is>
       </c>
       <c r="F39" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="7" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         </is>
       </c>
       <c r="F40" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         </is>
       </c>
       <c r="F41" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="F42" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         </is>
       </c>
       <c r="F44" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="F45" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         </is>
       </c>
       <c r="F46" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="F47" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         </is>
       </c>
       <c r="F48" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="7" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         </is>
       </c>
       <c r="F49" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="7" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         </is>
       </c>
       <c r="F50" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="7" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         </is>
       </c>
       <c r="F51" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="F52" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         </is>
       </c>
       <c r="F53" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="F54" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         </is>
       </c>
       <c r="F55" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         </is>
       </c>
       <c r="F56" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="F57" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         </is>
       </c>
       <c r="F58" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         </is>
       </c>
       <c r="F59" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
@@ -19816,7 +19816,7 @@
         </is>
       </c>
       <c r="F60" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
@@ -19856,7 +19856,7 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="F62" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="12" t="inlineStr"/>
       <c r="G2" s="12" t="inlineStr"/>
@@ -20412,7 +20412,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="12" t="inlineStr"/>
       <c r="G3" s="12" t="inlineStr"/>
@@ -20509,7 +20509,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="12" t="inlineStr"/>
       <c r="G4" s="12" t="inlineStr"/>
@@ -20606,7 +20606,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12" t="inlineStr"/>
       <c r="G5" s="12" t="inlineStr"/>
@@ -20703,7 +20703,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="inlineStr"/>
       <c r="G6" s="12" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="12" t="inlineStr"/>
       <c r="G7" s="12" t="inlineStr"/>
@@ -20897,7 +20897,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="12" t="inlineStr"/>
       <c r="G8" s="12" t="inlineStr"/>
@@ -20994,7 +20994,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12" t="inlineStr"/>
       <c r="G9" s="12" t="inlineStr"/>
@@ -21091,7 +21091,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="12" t="inlineStr"/>
       <c r="G10" s="12" t="inlineStr"/>
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="E11" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="12" t="inlineStr"/>
       <c r="G11" s="12" t="inlineStr"/>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="12" t="inlineStr"/>
       <c r="G12" s="12" t="inlineStr"/>
@@ -21310,7 +21310,7 @@
         </is>
       </c>
       <c r="E13" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="12" t="inlineStr"/>
       <c r="G13" s="12" t="inlineStr"/>
@@ -21383,7 +21383,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="14" t="inlineStr"/>
       <c r="G14" s="14" t="inlineStr"/>
@@ -21480,7 +21480,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="14" t="inlineStr"/>
       <c r="G15" s="14" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="14" t="inlineStr"/>
       <c r="G16" s="14" t="inlineStr"/>
@@ -21674,7 +21674,7 @@
         </is>
       </c>
       <c r="E17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="14" t="inlineStr"/>
       <c r="G17" s="14" t="inlineStr"/>
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E18" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="14" t="inlineStr"/>
       <c r="G18" s="14" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         </is>
       </c>
       <c r="E19" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="14" t="inlineStr"/>
       <c r="G19" s="14" t="inlineStr"/>
@@ -21965,7 +21965,7 @@
         </is>
       </c>
       <c r="E20" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="14" t="inlineStr"/>
       <c r="G20" s="14" t="inlineStr"/>
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="E21" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="14" t="inlineStr"/>
       <c r="G21" s="14" t="inlineStr"/>
@@ -22159,7 +22159,7 @@
         </is>
       </c>
       <c r="E22" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="14" t="inlineStr"/>
       <c r="G22" s="14" t="inlineStr"/>
@@ -22232,7 +22232,7 @@
         </is>
       </c>
       <c r="E23" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="14" t="inlineStr"/>
       <c r="G23" s="14" t="inlineStr"/>
@@ -22305,7 +22305,7 @@
         </is>
       </c>
       <c r="E24" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="14" t="inlineStr"/>
       <c r="G24" s="14" t="inlineStr"/>
@@ -22378,7 +22378,7 @@
         </is>
       </c>
       <c r="E25" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="14" t="inlineStr"/>
       <c r="G25" s="14" t="inlineStr"/>
@@ -22451,7 +22451,7 @@
         </is>
       </c>
       <c r="E26" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="12" t="inlineStr"/>
       <c r="G26" s="12" t="inlineStr"/>
@@ -22548,7 +22548,7 @@
         </is>
       </c>
       <c r="E27" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="12" t="inlineStr"/>
       <c r="G27" s="12" t="inlineStr"/>
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="E28" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="12" t="inlineStr"/>
       <c r="G28" s="12" t="inlineStr"/>
@@ -22742,7 +22742,7 @@
         </is>
       </c>
       <c r="E29" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="12" t="inlineStr"/>
       <c r="G29" s="12" t="inlineStr"/>
@@ -22839,7 +22839,7 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="12" t="inlineStr"/>
       <c r="G30" s="12" t="inlineStr"/>
@@ -22936,7 +22936,7 @@
         </is>
       </c>
       <c r="E31" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="12" t="inlineStr"/>
       <c r="G31" s="12" t="inlineStr"/>
@@ -23033,7 +23033,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="12" t="inlineStr"/>
       <c r="G32" s="12" t="inlineStr"/>
@@ -23130,7 +23130,7 @@
         </is>
       </c>
       <c r="E33" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="12" t="inlineStr"/>
       <c r="G33" s="12" t="inlineStr"/>
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="E34" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="12" t="inlineStr"/>
       <c r="G34" s="12" t="inlineStr"/>
@@ -23300,7 +23300,7 @@
         </is>
       </c>
       <c r="E35" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="12" t="inlineStr"/>
       <c r="G35" s="12" t="inlineStr"/>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="E36" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="12" t="inlineStr"/>
       <c r="G36" s="12" t="inlineStr"/>
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E37" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="12" t="inlineStr"/>
       <c r="G37" s="12" t="inlineStr"/>
@@ -23519,7 +23519,7 @@
         </is>
       </c>
       <c r="E38" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="14" t="inlineStr"/>
       <c r="G38" s="14" t="n">
@@ -23682,7 +23682,7 @@
         </is>
       </c>
       <c r="E39" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="14" t="n">
         <v>45545</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="E40" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="14" t="n">
         <v>45555</v>
@@ -24010,7 +24010,7 @@
         </is>
       </c>
       <c r="E41" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="14" t="inlineStr"/>
       <c r="G41" s="14" t="n">
@@ -24173,7 +24173,7 @@
         </is>
       </c>
       <c r="E42" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="14" t="n">
         <v>45545</v>
@@ -24338,7 +24338,7 @@
         </is>
       </c>
       <c r="E43" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="14" t="n">
         <v>45555</v>
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="E44" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="14" t="inlineStr"/>
       <c r="G44" s="14" t="n">
@@ -24664,7 +24664,7 @@
         </is>
       </c>
       <c r="E45" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="14" t="n">
         <v>45545</v>
@@ -24829,7 +24829,7 @@
         </is>
       </c>
       <c r="E46" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="14" t="n">
         <v>45555</v>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="E47" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="14" t="inlineStr"/>
       <c r="G47" s="14" t="n">
@@ -25155,7 +25155,7 @@
         </is>
       </c>
       <c r="E48" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="14" t="n">
         <v>45545</v>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="E49" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="14" t="n">
         <v>45555</v>
@@ -25483,7 +25483,7 @@
         </is>
       </c>
       <c r="E50" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" s="14" t="inlineStr"/>
       <c r="G50" s="14" t="inlineStr"/>
@@ -25556,7 +25556,7 @@
         </is>
       </c>
       <c r="E51" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" s="14" t="inlineStr"/>
       <c r="G51" s="14" t="inlineStr"/>
@@ -25629,7 +25629,7 @@
         </is>
       </c>
       <c r="E52" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="14" t="inlineStr"/>
       <c r="G52" s="14" t="inlineStr"/>
@@ -25702,7 +25702,7 @@
         </is>
       </c>
       <c r="E53" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="14" t="inlineStr"/>
       <c r="G53" s="14" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
         </is>
       </c>
       <c r="E54" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="14" t="inlineStr"/>
       <c r="G54" s="14" t="n">
@@ -25938,7 +25938,7 @@
         </is>
       </c>
       <c r="E55" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="14" t="n">
         <v>45545</v>
@@ -26103,7 +26103,7 @@
         </is>
       </c>
       <c r="E56" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="14" t="n">
         <v>45555</v>
@@ -26266,7 +26266,7 @@
         </is>
       </c>
       <c r="E57" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="14" t="inlineStr"/>
       <c r="G57" s="14" t="n">
@@ -26429,7 +26429,7 @@
         </is>
       </c>
       <c r="E58" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" s="14" t="n">
         <v>45545</v>
@@ -26594,7 +26594,7 @@
         </is>
       </c>
       <c r="E59" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" s="14" t="n">
         <v>45555</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="E60" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F60" s="14" t="inlineStr"/>
       <c r="G60" s="14" t="n">
@@ -26920,7 +26920,7 @@
         </is>
       </c>
       <c r="E61" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" s="14" t="n">
         <v>45545</v>
@@ -27085,7 +27085,7 @@
         </is>
       </c>
       <c r="E62" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F62" s="14" t="n">
         <v>45555</v>
@@ -27248,7 +27248,7 @@
         </is>
       </c>
       <c r="E63" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="14" t="inlineStr"/>
       <c r="G63" s="14" t="n">
@@ -27411,7 +27411,7 @@
         </is>
       </c>
       <c r="E64" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="14" t="n">
         <v>45545</v>
@@ -27576,7 +27576,7 @@
         </is>
       </c>
       <c r="E65" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65" s="14" t="n">
         <v>45555</v>
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="E66" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F66" s="12" t="inlineStr"/>
       <c r="G66" s="12" t="inlineStr"/>
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="E67" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F67" s="12" t="inlineStr"/>
       <c r="G67" s="12" t="inlineStr"/>
@@ -28189,7 +28189,7 @@
         </is>
       </c>
       <c r="E68" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="12" t="inlineStr"/>
       <c r="G68" s="12" t="inlineStr"/>
@@ -28414,7 +28414,7 @@
         </is>
       </c>
       <c r="E69" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="12" t="inlineStr"/>
       <c r="G69" s="12" t="inlineStr"/>
@@ -28639,7 +28639,7 @@
         </is>
       </c>
       <c r="E70" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" s="12" t="inlineStr"/>
       <c r="G70" s="12" t="inlineStr"/>
@@ -28864,7 +28864,7 @@
         </is>
       </c>
       <c r="E71" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="12" t="inlineStr"/>
       <c r="G71" s="12" t="inlineStr"/>
@@ -29089,7 +29089,7 @@
         </is>
       </c>
       <c r="E72" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" s="12" t="inlineStr"/>
       <c r="G72" s="12" t="inlineStr"/>
@@ -29314,7 +29314,7 @@
         </is>
       </c>
       <c r="E73" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F73" s="12" t="inlineStr"/>
       <c r="G73" s="12" t="inlineStr"/>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="E74" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="14" t="inlineStr"/>
       <c r="G74" s="14" t="inlineStr"/>
@@ -29708,7 +29708,7 @@
         </is>
       </c>
       <c r="E75" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" s="14" t="inlineStr"/>
       <c r="G75" s="14" t="n">
@@ -29879,7 +29879,7 @@
         </is>
       </c>
       <c r="E76" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" s="14" t="n">
         <v>45689</v>
@@ -30050,7 +30050,7 @@
         </is>
       </c>
       <c r="E77" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77" s="14" t="inlineStr"/>
       <c r="G77" s="14" t="inlineStr"/>
@@ -30219,7 +30219,7 @@
         </is>
       </c>
       <c r="E78" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" s="14" t="inlineStr"/>
       <c r="G78" s="14" t="n">
@@ -30390,7 +30390,7 @@
         </is>
       </c>
       <c r="E79" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" s="14" t="n">
         <v>45689</v>
@@ -30561,7 +30561,7 @@
         </is>
       </c>
       <c r="E80" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" s="14" t="inlineStr"/>
       <c r="G80" s="14" t="inlineStr"/>
@@ -30730,7 +30730,7 @@
         </is>
       </c>
       <c r="E81" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" s="14" t="inlineStr"/>
       <c r="G81" s="14" t="n">
@@ -30901,7 +30901,7 @@
         </is>
       </c>
       <c r="E82" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" s="14" t="n">
         <v>45689</v>
@@ -31072,7 +31072,7 @@
         </is>
       </c>
       <c r="E83" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F83" s="14" t="inlineStr"/>
       <c r="G83" s="14" t="inlineStr"/>
@@ -31241,7 +31241,7 @@
         </is>
       </c>
       <c r="E84" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" s="14" t="inlineStr"/>
       <c r="G84" s="14" t="n">
@@ -31412,7 +31412,7 @@
         </is>
       </c>
       <c r="E85" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" s="14" t="n">
         <v>45689</v>
@@ -31583,7 +31583,7 @@
         </is>
       </c>
       <c r="E86" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" s="14" t="inlineStr"/>
       <c r="G86" s="14" t="inlineStr"/>
@@ -31656,7 +31656,7 @@
         </is>
       </c>
       <c r="E87" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" s="14" t="inlineStr"/>
       <c r="G87" s="14" t="inlineStr"/>
@@ -31729,7 +31729,7 @@
         </is>
       </c>
       <c r="E88" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" s="14" t="inlineStr"/>
       <c r="G88" s="14" t="inlineStr"/>
@@ -31802,7 +31802,7 @@
         </is>
       </c>
       <c r="E89" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" s="14" t="inlineStr"/>
       <c r="G89" s="14" t="inlineStr"/>
@@ -31875,7 +31875,7 @@
         </is>
       </c>
       <c r="E90" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90" s="14" t="inlineStr"/>
       <c r="G90" s="14" t="inlineStr"/>
@@ -31948,7 +31948,7 @@
         </is>
       </c>
       <c r="E91" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" s="14" t="inlineStr"/>
       <c r="G91" s="14" t="inlineStr"/>
@@ -32021,7 +32021,7 @@
         </is>
       </c>
       <c r="E92" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F92" s="14" t="inlineStr"/>
       <c r="G92" s="14" t="inlineStr"/>
@@ -32094,7 +32094,7 @@
         </is>
       </c>
       <c r="E93" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" s="14" t="inlineStr"/>
       <c r="G93" s="14" t="inlineStr"/>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="E94" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F94" s="14" t="inlineStr"/>
       <c r="G94" s="14" t="inlineStr"/>
@@ -32336,7 +32336,7 @@
         </is>
       </c>
       <c r="E95" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" s="14" t="inlineStr"/>
       <c r="G95" s="14" t="n">
@@ -32507,7 +32507,7 @@
         </is>
       </c>
       <c r="E96" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" s="14" t="n">
         <v>45689</v>
@@ -32678,7 +32678,7 @@
         </is>
       </c>
       <c r="E97" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F97" s="14" t="inlineStr"/>
       <c r="G97" s="14" t="inlineStr"/>
@@ -32847,7 +32847,7 @@
         </is>
       </c>
       <c r="E98" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" s="14" t="inlineStr"/>
       <c r="G98" s="14" t="n">
@@ -33018,7 +33018,7 @@
         </is>
       </c>
       <c r="E99" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" s="14" t="n">
         <v>45689</v>
@@ -33189,7 +33189,7 @@
         </is>
       </c>
       <c r="E100" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F100" s="14" t="inlineStr"/>
       <c r="G100" s="14" t="inlineStr"/>
@@ -33358,7 +33358,7 @@
         </is>
       </c>
       <c r="E101" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" s="14" t="inlineStr"/>
       <c r="G101" s="14" t="n">
@@ -33529,7 +33529,7 @@
         </is>
       </c>
       <c r="E102" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" s="14" t="n">
         <v>45689</v>
@@ -33700,7 +33700,7 @@
         </is>
       </c>
       <c r="E103" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" s="14" t="inlineStr"/>
       <c r="G103" s="14" t="inlineStr"/>
@@ -33869,7 +33869,7 @@
         </is>
       </c>
       <c r="E104" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" s="14" t="inlineStr"/>
       <c r="G104" s="14" t="n">
@@ -34040,7 +34040,7 @@
         </is>
       </c>
       <c r="E105" s="13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" s="14" t="n">
         <v>45689</v>
@@ -34211,7 +34211,7 @@
         </is>
       </c>
       <c r="E106" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106" s="12" t="inlineStr"/>
       <c r="G106" s="12" t="inlineStr"/>
@@ -34388,7 +34388,7 @@
         </is>
       </c>
       <c r="E107" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F107" s="12" t="inlineStr"/>
       <c r="G107" s="12" t="inlineStr"/>
@@ -34565,7 +34565,7 @@
         </is>
       </c>
       <c r="E108" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F108" s="12" t="inlineStr"/>
       <c r="G108" s="12" t="inlineStr"/>
@@ -34742,7 +34742,7 @@
         </is>
       </c>
       <c r="E109" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F109" s="12" t="inlineStr"/>
       <c r="G109" s="12" t="inlineStr"/>
@@ -34919,7 +34919,7 @@
         </is>
       </c>
       <c r="E110" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F110" s="12" t="inlineStr"/>
       <c r="G110" s="12" t="inlineStr"/>
@@ -34992,7 +34992,7 @@
         </is>
       </c>
       <c r="E111" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F111" s="12" t="inlineStr"/>
       <c r="G111" s="12" t="inlineStr"/>
@@ -35065,7 +35065,7 @@
         </is>
       </c>
       <c r="E112" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F112" s="12" t="inlineStr"/>
       <c r="G112" s="12" t="inlineStr"/>
@@ -35138,7 +35138,7 @@
         </is>
       </c>
       <c r="E113" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F113" s="12" t="inlineStr"/>
       <c r="G113" s="12" t="inlineStr"/>
@@ -35211,7 +35211,7 @@
         </is>
       </c>
       <c r="E114" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F114" s="12" t="inlineStr"/>
       <c r="G114" s="12" t="inlineStr"/>
@@ -35388,7 +35388,7 @@
         </is>
       </c>
       <c r="E115" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F115" s="12" t="inlineStr"/>
       <c r="G115" s="12" t="inlineStr"/>
@@ -35565,7 +35565,7 @@
         </is>
       </c>
       <c r="E116" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116" s="12" t="inlineStr"/>
       <c r="G116" s="12" t="inlineStr"/>
@@ -35742,7 +35742,7 @@
         </is>
       </c>
       <c r="E117" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F117" s="12" t="inlineStr"/>
       <c r="G117" s="12" t="inlineStr"/>
@@ -35919,7 +35919,7 @@
         </is>
       </c>
       <c r="E118" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F118" s="14" t="inlineStr"/>
       <c r="G118" s="14" t="inlineStr"/>
@@ -36088,7 +36088,7 @@
         </is>
       </c>
       <c r="E119" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F119" s="14" t="inlineStr"/>
       <c r="G119" s="14" t="inlineStr"/>
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="E120" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F120" s="14" t="inlineStr"/>
       <c r="G120" s="14" t="inlineStr"/>
@@ -36426,7 +36426,7 @@
         </is>
       </c>
       <c r="E121" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F121" s="14" t="inlineStr"/>
       <c r="G121" s="14" t="inlineStr"/>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="E122" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F122" s="14" t="inlineStr"/>
       <c r="G122" s="14" t="inlineStr"/>
@@ -36668,7 +36668,7 @@
         </is>
       </c>
       <c r="E123" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F123" s="14" t="inlineStr"/>
       <c r="G123" s="14" t="inlineStr"/>
@@ -36741,7 +36741,7 @@
         </is>
       </c>
       <c r="E124" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F124" s="14" t="inlineStr"/>
       <c r="G124" s="14" t="inlineStr"/>
@@ -36814,7 +36814,7 @@
         </is>
       </c>
       <c r="E125" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F125" s="14" t="inlineStr"/>
       <c r="G125" s="14" t="inlineStr"/>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="E126" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F126" s="14" t="inlineStr"/>
       <c r="G126" s="14" t="inlineStr"/>
@@ -37056,7 +37056,7 @@
         </is>
       </c>
       <c r="E127" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F127" s="14" t="inlineStr"/>
       <c r="G127" s="14" t="inlineStr"/>
@@ -37225,7 +37225,7 @@
         </is>
       </c>
       <c r="E128" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F128" s="14" t="inlineStr"/>
       <c r="G128" s="14" t="inlineStr"/>
@@ -37394,7 +37394,7 @@
         </is>
       </c>
       <c r="E129" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F129" s="14" t="inlineStr"/>
       <c r="G129" s="14" t="inlineStr"/>
@@ -37563,7 +37563,7 @@
         </is>
       </c>
       <c r="E130" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F130" s="12" t="inlineStr"/>
       <c r="G130" s="12" t="inlineStr"/>
@@ -37660,7 +37660,7 @@
         </is>
       </c>
       <c r="E131" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F131" s="12" t="inlineStr"/>
       <c r="G131" s="12" t="inlineStr"/>
@@ -37757,7 +37757,7 @@
         </is>
       </c>
       <c r="E132" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F132" s="12" t="inlineStr"/>
       <c r="G132" s="12" t="inlineStr"/>
@@ -37854,7 +37854,7 @@
         </is>
       </c>
       <c r="E133" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F133" s="12" t="inlineStr"/>
       <c r="G133" s="12" t="inlineStr"/>
@@ -37951,7 +37951,7 @@
         </is>
       </c>
       <c r="E134" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F134" s="12" t="inlineStr"/>
       <c r="G134" s="12" t="inlineStr"/>
@@ -38048,7 +38048,7 @@
         </is>
       </c>
       <c r="E135" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F135" s="12" t="inlineStr"/>
       <c r="G135" s="12" t="inlineStr"/>
@@ -38145,7 +38145,7 @@
         </is>
       </c>
       <c r="E136" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F136" s="12" t="inlineStr"/>
       <c r="G136" s="12" t="inlineStr"/>
@@ -38242,7 +38242,7 @@
         </is>
       </c>
       <c r="E137" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F137" s="12" t="inlineStr"/>
       <c r="G137" s="12" t="inlineStr"/>
@@ -38339,7 +38339,7 @@
         </is>
       </c>
       <c r="E138" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F138" s="12" t="inlineStr"/>
       <c r="G138" s="12" t="inlineStr"/>
@@ -38412,7 +38412,7 @@
         </is>
       </c>
       <c r="E139" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F139" s="12" t="inlineStr"/>
       <c r="G139" s="12" t="inlineStr"/>
@@ -38485,7 +38485,7 @@
         </is>
       </c>
       <c r="E140" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F140" s="12" t="inlineStr"/>
       <c r="G140" s="12" t="inlineStr"/>
@@ -38558,7 +38558,7 @@
         </is>
       </c>
       <c r="E141" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F141" s="12" t="inlineStr"/>
       <c r="G141" s="12" t="inlineStr"/>
@@ -38631,7 +38631,7 @@
         </is>
       </c>
       <c r="E142" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F142" s="14" t="inlineStr"/>
       <c r="G142" s="14" t="inlineStr"/>
@@ -38720,7 +38720,7 @@
         </is>
       </c>
       <c r="E143" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F143" s="14" t="inlineStr"/>
       <c r="G143" s="14" t="inlineStr"/>
@@ -38809,7 +38809,7 @@
         </is>
       </c>
       <c r="E144" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F144" s="14" t="inlineStr"/>
       <c r="G144" s="14" t="inlineStr"/>
@@ -38898,7 +38898,7 @@
         </is>
       </c>
       <c r="E145" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F145" s="14" t="inlineStr"/>
       <c r="G145" s="14" t="inlineStr"/>
@@ -38987,7 +38987,7 @@
         </is>
       </c>
       <c r="E146" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F146" s="14" t="inlineStr"/>
       <c r="G146" s="14" t="inlineStr"/>
@@ -39076,7 +39076,7 @@
         </is>
       </c>
       <c r="E147" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F147" s="14" t="inlineStr"/>
       <c r="G147" s="14" t="inlineStr"/>
@@ -39165,7 +39165,7 @@
         </is>
       </c>
       <c r="E148" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F148" s="14" t="inlineStr"/>
       <c r="G148" s="14" t="inlineStr"/>
@@ -39254,7 +39254,7 @@
         </is>
       </c>
       <c r="E149" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F149" s="14" t="inlineStr"/>
       <c r="G149" s="14" t="inlineStr"/>
@@ -39343,7 +39343,7 @@
         </is>
       </c>
       <c r="E150" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F150" s="14" t="inlineStr"/>
       <c r="G150" s="14" t="inlineStr"/>
@@ -39416,7 +39416,7 @@
         </is>
       </c>
       <c r="E151" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F151" s="14" t="inlineStr"/>
       <c r="G151" s="14" t="inlineStr"/>
@@ -39489,7 +39489,7 @@
         </is>
       </c>
       <c r="E152" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F152" s="14" t="inlineStr"/>
       <c r="G152" s="14" t="inlineStr"/>
@@ -39562,7 +39562,7 @@
         </is>
       </c>
       <c r="E153" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F153" s="14" t="inlineStr"/>
       <c r="G153" s="14" t="inlineStr"/>
@@ -39635,7 +39635,7 @@
         </is>
       </c>
       <c r="E154" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F154" s="12" t="inlineStr"/>
       <c r="G154" s="12" t="inlineStr"/>
@@ -39732,7 +39732,7 @@
         </is>
       </c>
       <c r="E155" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" s="12" t="inlineStr"/>
       <c r="G155" s="12" t="inlineStr"/>
@@ -39829,7 +39829,7 @@
         </is>
       </c>
       <c r="E156" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F156" s="12" t="inlineStr"/>
       <c r="G156" s="12" t="inlineStr"/>
@@ -39926,7 +39926,7 @@
         </is>
       </c>
       <c r="E157" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F157" s="12" t="inlineStr"/>
       <c r="G157" s="12" t="inlineStr"/>
@@ -40023,7 +40023,7 @@
         </is>
       </c>
       <c r="E158" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" s="12" t="inlineStr"/>
       <c r="G158" s="12" t="inlineStr"/>
@@ -40120,7 +40120,7 @@
         </is>
       </c>
       <c r="E159" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F159" s="12" t="inlineStr"/>
       <c r="G159" s="12" t="inlineStr"/>
@@ -40217,7 +40217,7 @@
         </is>
       </c>
       <c r="E160" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F160" s="12" t="inlineStr"/>
       <c r="G160" s="12" t="inlineStr"/>
@@ -40314,7 +40314,7 @@
         </is>
       </c>
       <c r="E161" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F161" s="12" t="inlineStr"/>
       <c r="G161" s="12" t="inlineStr"/>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="E162" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F162" s="12" t="inlineStr"/>
       <c r="G162" s="12" t="inlineStr"/>
@@ -40484,7 +40484,7 @@
         </is>
       </c>
       <c r="E163" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F163" s="12" t="inlineStr"/>
       <c r="G163" s="12" t="inlineStr"/>
@@ -40557,7 +40557,7 @@
         </is>
       </c>
       <c r="E164" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F164" s="12" t="inlineStr"/>
       <c r="G164" s="12" t="inlineStr"/>
@@ -40630,7 +40630,7 @@
         </is>
       </c>
       <c r="E165" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F165" s="12" t="inlineStr"/>
       <c r="G165" s="12" t="inlineStr"/>
@@ -40703,7 +40703,7 @@
         </is>
       </c>
       <c r="E166" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F166" s="14" t="inlineStr"/>
       <c r="G166" s="14" t="inlineStr"/>
@@ -40800,7 +40800,7 @@
         </is>
       </c>
       <c r="E167" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F167" s="14" t="inlineStr"/>
       <c r="G167" s="14" t="inlineStr"/>
@@ -40897,7 +40897,7 @@
         </is>
       </c>
       <c r="E168" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F168" s="14" t="inlineStr"/>
       <c r="G168" s="14" t="inlineStr"/>
@@ -40994,7 +40994,7 @@
         </is>
       </c>
       <c r="E169" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F169" s="14" t="inlineStr"/>
       <c r="G169" s="14" t="inlineStr"/>
@@ -41091,7 +41091,7 @@
         </is>
       </c>
       <c r="E170" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F170" s="14" t="inlineStr"/>
       <c r="G170" s="14" t="inlineStr"/>
@@ -41188,7 +41188,7 @@
         </is>
       </c>
       <c r="E171" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F171" s="14" t="inlineStr"/>
       <c r="G171" s="14" t="inlineStr"/>
@@ -41285,7 +41285,7 @@
         </is>
       </c>
       <c r="E172" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F172" s="14" t="inlineStr"/>
       <c r="G172" s="14" t="inlineStr"/>
@@ -41382,7 +41382,7 @@
         </is>
       </c>
       <c r="E173" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F173" s="14" t="inlineStr"/>
       <c r="G173" s="14" t="inlineStr"/>
@@ -41479,7 +41479,7 @@
         </is>
       </c>
       <c r="E174" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F174" s="14" t="inlineStr"/>
       <c r="G174" s="14" t="inlineStr"/>
@@ -41552,7 +41552,7 @@
         </is>
       </c>
       <c r="E175" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F175" s="14" t="inlineStr"/>
       <c r="G175" s="14" t="inlineStr"/>
@@ -41625,7 +41625,7 @@
         </is>
       </c>
       <c r="E176" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F176" s="14" t="inlineStr"/>
       <c r="G176" s="14" t="inlineStr"/>
@@ -41698,7 +41698,7 @@
         </is>
       </c>
       <c r="E177" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F177" s="14" t="inlineStr"/>
       <c r="G177" s="14" t="inlineStr"/>
@@ -41771,7 +41771,7 @@
         </is>
       </c>
       <c r="E178" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F178" s="12" t="inlineStr"/>
       <c r="G178" s="12" t="inlineStr"/>
@@ -41868,7 +41868,7 @@
         </is>
       </c>
       <c r="E179" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F179" s="12" t="inlineStr"/>
       <c r="G179" s="12" t="inlineStr"/>
@@ -41965,7 +41965,7 @@
         </is>
       </c>
       <c r="E180" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F180" s="12" t="inlineStr"/>
       <c r="G180" s="12" t="inlineStr"/>
@@ -42062,7 +42062,7 @@
         </is>
       </c>
       <c r="E181" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F181" s="12" t="inlineStr"/>
       <c r="G181" s="12" t="inlineStr"/>
@@ -42159,7 +42159,7 @@
         </is>
       </c>
       <c r="E182" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F182" s="12" t="inlineStr"/>
       <c r="G182" s="12" t="inlineStr"/>
@@ -42256,7 +42256,7 @@
         </is>
       </c>
       <c r="E183" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F183" s="12" t="inlineStr"/>
       <c r="G183" s="12" t="inlineStr"/>
@@ -42353,7 +42353,7 @@
         </is>
       </c>
       <c r="E184" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F184" s="12" t="inlineStr"/>
       <c r="G184" s="12" t="inlineStr"/>
@@ -42450,7 +42450,7 @@
         </is>
       </c>
       <c r="E185" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F185" s="12" t="inlineStr"/>
       <c r="G185" s="12" t="inlineStr"/>
@@ -42547,7 +42547,7 @@
         </is>
       </c>
       <c r="E186" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F186" s="12" t="inlineStr"/>
       <c r="G186" s="12" t="inlineStr"/>
@@ -42620,7 +42620,7 @@
         </is>
       </c>
       <c r="E187" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F187" s="12" t="inlineStr"/>
       <c r="G187" s="12" t="inlineStr"/>
@@ -42693,7 +42693,7 @@
         </is>
       </c>
       <c r="E188" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F188" s="12" t="inlineStr"/>
       <c r="G188" s="12" t="inlineStr"/>
@@ -42766,7 +42766,7 @@
         </is>
       </c>
       <c r="E189" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F189" s="12" t="inlineStr"/>
       <c r="G189" s="12" t="inlineStr"/>
@@ -42913,7 +42913,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>45555</v>
@@ -42949,7 +42949,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="16" t="n">
         <v>45555</v>
@@ -42985,7 +42985,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16" t="n">
         <v>45555</v>
@@ -43021,7 +43021,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="16" t="n">
         <v>45555</v>
@@ -43057,7 +43057,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="16" t="n">
         <v>45555</v>
@@ -43093,7 +43093,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16" t="n">
         <v>45555</v>
@@ -43129,7 +43129,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="n">
         <v>45555</v>
@@ -43165,7 +43165,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="16" t="n">
         <v>45555</v>
@@ -43201,7 +43201,7 @@
         </is>
       </c>
       <c r="E10" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="17" t="n">
         <v>45560</v>
@@ -43237,7 +43237,7 @@
         </is>
       </c>
       <c r="E11" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="17" t="n">
         <v>45560</v>
@@ -43273,7 +43273,7 @@
         </is>
       </c>
       <c r="E12" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="17" t="n">
         <v>45560</v>
@@ -43309,7 +43309,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="17" t="n">
         <v>45560</v>
@@ -43345,7 +43345,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17" t="n">
         <v>45560</v>
@@ -43381,7 +43381,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="17" t="n">
         <v>45560</v>
@@ -43417,7 +43417,7 @@
         </is>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="17" t="n">
         <v>45560</v>
@@ -43453,7 +43453,7 @@
         </is>
       </c>
       <c r="E17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="17" t="n">
         <v>45560</v>
@@ -43489,7 +43489,7 @@
         </is>
       </c>
       <c r="E18" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="16" t="n">
         <v>45658</v>
@@ -43525,7 +43525,7 @@
         </is>
       </c>
       <c r="E19" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="16" t="n">
         <v>45658</v>
@@ -43561,7 +43561,7 @@
         </is>
       </c>
       <c r="E20" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="16" t="n">
         <v>45658</v>
@@ -43597,7 +43597,7 @@
         </is>
       </c>
       <c r="E21" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="16" t="n">
         <v>45658</v>
@@ -43633,7 +43633,7 @@
         </is>
       </c>
       <c r="E22" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="16" t="n">
         <v>45658</v>
@@ -43669,7 +43669,7 @@
         </is>
       </c>
       <c r="E23" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="16" t="n">
         <v>45658</v>
@@ -43705,7 +43705,7 @@
         </is>
       </c>
       <c r="E24" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="16" t="n">
         <v>45658</v>
@@ -43741,7 +43741,7 @@
         </is>
       </c>
       <c r="E25" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="16" t="n">
         <v>45658</v>
@@ -43777,7 +43777,7 @@
         </is>
       </c>
       <c r="E26" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" s="17" t="inlineStr"/>
       <c r="G26" s="5" t="n">
@@ -43807,7 +43807,7 @@
         </is>
       </c>
       <c r="E27" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="17" t="inlineStr"/>
       <c r="G27" s="5" t="n">
@@ -43837,7 +43837,7 @@
         </is>
       </c>
       <c r="E28" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" s="17" t="inlineStr"/>
       <c r="G28" s="5" t="n">
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="E29" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" s="17" t="inlineStr"/>
       <c r="G29" s="5" t="n">
@@ -43897,7 +43897,7 @@
         </is>
       </c>
       <c r="E30" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" s="17" t="inlineStr"/>
       <c r="G30" s="5" t="n">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="E31" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="17" t="inlineStr"/>
       <c r="G31" s="5" t="n">
@@ -43957,7 +43957,7 @@
         </is>
       </c>
       <c r="E32" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="17" t="inlineStr"/>
       <c r="G32" s="5" t="n">
@@ -43987,7 +43987,7 @@
         </is>
       </c>
       <c r="E33" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" s="17" t="inlineStr"/>
       <c r="G33" s="5" t="n">
@@ -44017,7 +44017,7 @@
         </is>
       </c>
       <c r="E34" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="16" t="n">
         <v>45550</v>
@@ -44053,7 +44053,7 @@
         </is>
       </c>
       <c r="E35" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="16" t="n">
         <v>45550</v>
@@ -44089,7 +44089,7 @@
         </is>
       </c>
       <c r="E36" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="16" t="n">
         <v>45550</v>
@@ -44125,7 +44125,7 @@
         </is>
       </c>
       <c r="E37" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="16" t="n">
         <v>45550</v>
@@ -44161,7 +44161,7 @@
         </is>
       </c>
       <c r="E38" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="16" t="n">
         <v>45550</v>
@@ -44197,7 +44197,7 @@
         </is>
       </c>
       <c r="E39" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="16" t="n">
         <v>45550</v>
@@ -44233,7 +44233,7 @@
         </is>
       </c>
       <c r="E40" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="16" t="n">
         <v>45550</v>
@@ -44269,7 +44269,7 @@
         </is>
       </c>
       <c r="E41" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="16" t="n">
         <v>45550</v>
@@ -44445,7 +44445,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="12" t="inlineStr"/>
       <c r="G2" s="12" t="inlineStr"/>
@@ -44524,7 +44524,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="12" t="inlineStr"/>
       <c r="G3" s="12" t="inlineStr"/>
@@ -44603,7 +44603,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="12" t="inlineStr"/>
       <c r="G4" s="12" t="inlineStr"/>
@@ -44682,7 +44682,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="12" t="inlineStr"/>
       <c r="G5" s="12" t="inlineStr"/>
@@ -44761,7 +44761,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="inlineStr"/>
       <c r="G6" s="12" t="inlineStr"/>
@@ -44800,7 +44800,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="12" t="inlineStr"/>
       <c r="G7" s="12" t="inlineStr"/>
@@ -44839,7 +44839,7 @@
         </is>
       </c>
       <c r="E8" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="12" t="inlineStr"/>
       <c r="G8" s="12" t="inlineStr"/>
@@ -44878,7 +44878,7 @@
         </is>
       </c>
       <c r="E9" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12" t="inlineStr"/>
       <c r="G9" s="12" t="inlineStr"/>
@@ -44917,7 +44917,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="12" t="inlineStr"/>
       <c r="G10" s="12" t="inlineStr"/>
@@ -44996,7 +44996,7 @@
         </is>
       </c>
       <c r="E11" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="12" t="inlineStr"/>
       <c r="G11" s="12" t="inlineStr"/>
@@ -45075,7 +45075,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="12" t="inlineStr"/>
       <c r="G12" s="12" t="inlineStr"/>
@@ -45154,7 +45154,7 @@
         </is>
       </c>
       <c r="E13" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="12" t="inlineStr"/>
       <c r="G13" s="12" t="inlineStr"/>
@@ -45233,7 +45233,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="14" t="inlineStr"/>
       <c r="G14" s="14" t="inlineStr"/>
@@ -45312,7 +45312,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="14" t="inlineStr"/>
       <c r="G15" s="14" t="inlineStr"/>
@@ -45391,7 +45391,7 @@
         </is>
       </c>
       <c r="E16" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="14" t="inlineStr"/>
       <c r="G16" s="14" t="inlineStr"/>
@@ -45470,7 +45470,7 @@
         </is>
       </c>
       <c r="E17" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="14" t="inlineStr"/>
       <c r="G17" s="14" t="inlineStr"/>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="E18" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="14" t="inlineStr"/>
       <c r="G18" s="14" t="inlineStr"/>
@@ -45588,7 +45588,7 @@
         </is>
       </c>
       <c r="E19" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="14" t="inlineStr"/>
       <c r="G19" s="14" t="inlineStr"/>
@@ -45627,7 +45627,7 @@
         </is>
       </c>
       <c r="E20" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="14" t="inlineStr"/>
       <c r="G20" s="14" t="inlineStr"/>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="E21" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="14" t="inlineStr"/>
       <c r="G21" s="14" t="inlineStr"/>
@@ -45705,7 +45705,7 @@
         </is>
       </c>
       <c r="E22" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="14" t="inlineStr"/>
       <c r="G22" s="14" t="inlineStr"/>
@@ -45784,7 +45784,7 @@
         </is>
       </c>
       <c r="E23" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="14" t="inlineStr"/>
       <c r="G23" s="14" t="inlineStr"/>
@@ -45863,7 +45863,7 @@
         </is>
       </c>
       <c r="E24" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="14" t="inlineStr"/>
       <c r="G24" s="14" t="inlineStr"/>
@@ -45942,7 +45942,7 @@
         </is>
       </c>
       <c r="E25" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="14" t="inlineStr"/>
       <c r="G25" s="14" t="inlineStr"/>
@@ -46021,7 +46021,7 @@
         </is>
       </c>
       <c r="E26" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="12" t="inlineStr"/>
       <c r="G26" s="12" t="inlineStr"/>
@@ -46076,7 +46076,7 @@
         </is>
       </c>
       <c r="E27" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="12" t="inlineStr"/>
       <c r="G27" s="12" t="inlineStr"/>
@@ -46131,7 +46131,7 @@
         </is>
       </c>
       <c r="E28" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="12" t="inlineStr"/>
       <c r="G28" s="12" t="inlineStr"/>
@@ -46186,7 +46186,7 @@
         </is>
       </c>
       <c r="E29" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="12" t="inlineStr"/>
       <c r="G29" s="12" t="inlineStr"/>
@@ -46241,7 +46241,7 @@
         </is>
       </c>
       <c r="E30" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30" s="12" t="inlineStr"/>
       <c r="G30" s="12" t="inlineStr"/>
@@ -46296,7 +46296,7 @@
         </is>
       </c>
       <c r="E31" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="12" t="inlineStr"/>
       <c r="G31" s="12" t="inlineStr"/>
@@ -46351,7 +46351,7 @@
         </is>
       </c>
       <c r="E32" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="12" t="inlineStr"/>
       <c r="G32" s="12" t="inlineStr"/>
@@ -46406,7 +46406,7 @@
         </is>
       </c>
       <c r="E33" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" s="12" t="inlineStr"/>
       <c r="G33" s="12" t="inlineStr"/>
@@ -46461,7 +46461,7 @@
         </is>
       </c>
       <c r="E34" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="14" t="inlineStr"/>
       <c r="G34" s="14" t="inlineStr"/>
@@ -46508,7 +46508,7 @@
         </is>
       </c>
       <c r="E35" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" s="14" t="inlineStr"/>
       <c r="G35" s="14" t="inlineStr"/>
@@ -46555,7 +46555,7 @@
         </is>
       </c>
       <c r="E36" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="14" t="inlineStr"/>
       <c r="G36" s="14" t="inlineStr"/>
@@ -46602,7 +46602,7 @@
         </is>
       </c>
       <c r="E37" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" s="14" t="inlineStr"/>
       <c r="G37" s="14" t="inlineStr"/>
@@ -46649,7 +46649,7 @@
         </is>
       </c>
       <c r="E38" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="14" t="inlineStr"/>
       <c r="G38" s="14" t="inlineStr"/>
@@ -46696,7 +46696,7 @@
         </is>
       </c>
       <c r="E39" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="14" t="inlineStr"/>
       <c r="G39" s="14" t="inlineStr"/>
@@ -46743,7 +46743,7 @@
         </is>
       </c>
       <c r="E40" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="14" t="inlineStr"/>
       <c r="G40" s="14" t="inlineStr"/>
@@ -46790,7 +46790,7 @@
         </is>
       </c>
       <c r="E41" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="14" t="inlineStr"/>
       <c r="G41" s="14" t="inlineStr"/>
@@ -46837,7 +46837,7 @@
         </is>
       </c>
       <c r="E42" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" s="14" t="inlineStr"/>
       <c r="G42" s="14" t="inlineStr"/>
@@ -46876,7 +46876,7 @@
         </is>
       </c>
       <c r="E43" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" s="14" t="inlineStr"/>
       <c r="G43" s="14" t="inlineStr"/>
@@ -46915,7 +46915,7 @@
         </is>
       </c>
       <c r="E44" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" s="14" t="inlineStr"/>
       <c r="G44" s="14" t="inlineStr"/>
@@ -46954,7 +46954,7 @@
         </is>
       </c>
       <c r="E45" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" s="14" t="inlineStr"/>
       <c r="G45" s="14" t="inlineStr"/>
@@ -46993,7 +46993,7 @@
         </is>
       </c>
       <c r="E46" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" s="12" t="inlineStr"/>
       <c r="G46" s="12" t="inlineStr"/>
@@ -47054,7 +47054,7 @@
         </is>
       </c>
       <c r="E47" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="12" t="inlineStr"/>
       <c r="G47" s="12" t="inlineStr"/>
@@ -47115,7 +47115,7 @@
         </is>
       </c>
       <c r="E48" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" s="12" t="inlineStr"/>
       <c r="G48" s="12" t="inlineStr"/>
@@ -47176,7 +47176,7 @@
         </is>
       </c>
       <c r="E49" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="12" t="inlineStr"/>
       <c r="G49" s="12" t="inlineStr"/>
@@ -47237,7 +47237,7 @@
         </is>
       </c>
       <c r="E50" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F50" s="12" t="inlineStr"/>
       <c r="G50" s="12" t="inlineStr"/>
@@ -47278,7 +47278,7 @@
         </is>
       </c>
       <c r="E51" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" s="12" t="inlineStr"/>
       <c r="G51" s="12" t="inlineStr"/>
@@ -47319,7 +47319,7 @@
         </is>
       </c>
       <c r="E52" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F52" s="12" t="inlineStr"/>
       <c r="G52" s="12" t="inlineStr"/>
@@ -47360,7 +47360,7 @@
         </is>
       </c>
       <c r="E53" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="12" t="inlineStr"/>
       <c r="G53" s="12" t="inlineStr"/>
@@ -47401,7 +47401,7 @@
         </is>
       </c>
       <c r="E54" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="12" t="inlineStr"/>
       <c r="G54" s="12" t="inlineStr"/>
@@ -47462,7 +47462,7 @@
         </is>
       </c>
       <c r="E55" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="12" t="inlineStr"/>
       <c r="G55" s="12" t="inlineStr"/>
@@ -47523,7 +47523,7 @@
         </is>
       </c>
       <c r="E56" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="12" t="inlineStr"/>
       <c r="G56" s="12" t="inlineStr"/>
@@ -47584,7 +47584,7 @@
         </is>
       </c>
       <c r="E57" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" s="12" t="inlineStr"/>
       <c r="G57" s="12" t="inlineStr"/>
@@ -47779,7 +47779,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -47857,7 +47857,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -47935,7 +47935,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
@@ -48091,7 +48091,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
@@ -48169,7 +48169,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
@@ -48325,7 +48325,7 @@
         </is>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="E10" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="13" t="inlineStr">
         <is>
@@ -48481,7 +48481,7 @@
         </is>
       </c>
       <c r="E11" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         </is>
       </c>
       <c r="E12" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
@@ -48637,7 +48637,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
@@ -48715,7 +48715,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
@@ -48793,7 +48793,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
@@ -48975,7 +48975,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>45565</v>
@@ -49032,7 +49032,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>45565</v>
@@ -49089,7 +49089,7 @@
         </is>
       </c>
       <c r="E4" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14" t="n">
         <v>45565</v>
@@ -49146,7 +49146,7 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14" t="n">
         <v>45565</v>
@@ -49203,7 +49203,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="n">
         <v>45565</v>
@@ -49260,7 +49260,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="n">
         <v>45565</v>
@@ -49317,7 +49317,7 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14" t="n">
         <v>45565</v>
@@ -49374,7 +49374,7 @@
         </is>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14" t="n">
         <v>45565</v>
@@ -49431,7 +49431,7 @@
         </is>
       </c>
       <c r="E10" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="12" t="n">
         <v>45565</v>
@@ -49488,7 +49488,7 @@
         </is>
       </c>
       <c r="E11" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>45565</v>
@@ -49545,7 +49545,7 @@
         </is>
       </c>
       <c r="E12" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="12" t="n">
         <v>45565</v>
@@ -49602,7 +49602,7 @@
         </is>
       </c>
       <c r="E13" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="12" t="n">
         <v>45565</v>
@@ -49775,7 +49775,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -49842,7 +49842,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -50061,7 +50061,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -50115,7 +50115,7 @@
         </is>
       </c>
       <c r="E4" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
@@ -50169,7 +50169,7 @@
         </is>
       </c>
       <c r="E5" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
@@ -50223,7 +50223,7 @@
         </is>
       </c>
       <c r="E6" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="13" t="inlineStr">
         <is>
@@ -50277,7 +50277,7 @@
         </is>
       </c>
       <c r="E7" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="13" t="inlineStr">
         <is>
@@ -50331,7 +50331,7 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
@@ -50385,7 +50385,7 @@
         </is>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
@@ -50439,7 +50439,7 @@
         </is>
       </c>
       <c r="E10" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="13" t="inlineStr">
         <is>
@@ -50493,7 +50493,7 @@
         </is>
       </c>
       <c r="E11" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         </is>
       </c>
       <c r="E12" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
@@ -50601,7 +50601,7 @@
         </is>
       </c>
       <c r="E13" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
@@ -50655,7 +50655,7 @@
         </is>
       </c>
       <c r="E14" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
@@ -50709,7 +50709,7 @@
         </is>
       </c>
       <c r="E15" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
@@ -50763,7 +50763,7 @@
         </is>
       </c>
       <c r="E16" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" s="11" t="inlineStr">
         <is>
@@ -50817,7 +50817,7 @@
         </is>
       </c>
       <c r="E17" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="11" t="inlineStr">
         <is>
@@ -50981,7 +50981,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -51043,7 +51043,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -51105,7 +51105,7 @@
         </is>
       </c>
       <c r="E4" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
@@ -51167,7 +51167,7 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
@@ -51229,7 +51229,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
@@ -51291,7 +51291,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
@@ -51353,7 +51353,7 @@
         </is>
       </c>
       <c r="E8" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
@@ -51415,7 +51415,7 @@
         </is>
       </c>
       <c r="E9" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="13" t="inlineStr">
         <is>
@@ -51587,7 +51587,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
@@ -51649,7 +51649,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="inlineStr">
         <is>
@@ -51711,7 +51711,7 @@
         </is>
       </c>
       <c r="E4" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
@@ -51773,7 +51773,7 @@
         </is>
       </c>
       <c r="E5" s="13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
@@ -51835,7 +51835,7 @@
         </is>
       </c>
       <c r="E6" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
@@ -51897,7 +51897,7 @@
         </is>
       </c>
       <c r="E7" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="E2" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="12" t="n">
         <v>45565</v>
@@ -52142,7 +52142,7 @@
         </is>
       </c>
       <c r="E3" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="12" t="n">
         <v>45565</v>
